--- a/biology/Médecine/Kurt_Schneider/Kurt_Schneider.xlsx
+++ b/biology/Médecine/Kurt_Schneider/Kurt_Schneider.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kurt Schneider,  né le 7 janvier 1887 à Crailsheim, mort le 27 octobre 1967 à Heidelberg, est un psychiatre allemand.
 En 1950, il publie un livre, Psychopathologie clinique, qui a eu une grande influence au niveau des définitions de la schizophrénie. Après Eugene Bleuler, il en revient aux idées de Emil Kraepelin, qui se voulaient plus descriptives et moins centrées sur les processus de la maladie. Il a été l'élève de Karl Jaspers. Il décrit alors des « symptômes de premier rang » qui sont notamment ce qui permet de distinguer le vécu du schizophrène de celui de l'homme « normal ». Ce qu'il explique devrait permettre d'effectuer un diagnostic différentiel d'autres maladies. 
@@ -525,7 +537,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>schizophrénie
 psychopathologie</t>
